--- a/po_analysis_by_asin/B0C5BQ1HM6_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5BQ1HM6_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,137 +452,297 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>1080</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>690</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1460</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>380</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45383</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45390</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45474</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>260</v>
+        <v>850</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45530</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45537</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45544</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45565</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45572</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B18" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B38" t="n">
         <v>280</v>
       </c>
     </row>
@@ -597,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,65 +779,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>2370</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>870</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1840</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>260</v>
+        <v>860</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>360</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C5BQ1HM6_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5BQ1HM6_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -773,7 +774,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -903,6 +904,677 @@
       </c>
       <c r="B17" t="n">
         <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>377</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-167.6201035971666</v>
+      </c>
+      <c r="D2" t="n">
+        <v>895.9343489773556</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>375</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-149.5526682201012</v>
+      </c>
+      <c r="D3" t="n">
+        <v>934.1962061527547</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>375</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-160.5059425075265</v>
+      </c>
+      <c r="D4" t="n">
+        <v>855.1558878676997</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>374</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-164.210164477648</v>
+      </c>
+      <c r="D5" t="n">
+        <v>923.1209601553389</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>374</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-161.7013735420639</v>
+      </c>
+      <c r="D6" t="n">
+        <v>912.2807578878048</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>373</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-196.408313147491</v>
+      </c>
+      <c r="D7" t="n">
+        <v>936.9213129534812</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>373</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-201.2726136946428</v>
+      </c>
+      <c r="D8" t="n">
+        <v>933.2241788391301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>372</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-180.1303586010583</v>
+      </c>
+      <c r="D9" t="n">
+        <v>943.9439542685134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>372</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-173.9699601615456</v>
+      </c>
+      <c r="D10" t="n">
+        <v>900.6778233229171</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>371</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-171.7216516474463</v>
+      </c>
+      <c r="D11" t="n">
+        <v>889.720446561116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>370</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-169.7470307266962</v>
+      </c>
+      <c r="D12" t="n">
+        <v>883.2509509398243</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>369</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-168.8468315567614</v>
+      </c>
+      <c r="D13" t="n">
+        <v>924.0081826539438</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>368</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-136.4426745778821</v>
+      </c>
+      <c r="D14" t="n">
+        <v>957.8230232608395</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>368</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-171.4405645503573</v>
+      </c>
+      <c r="D15" t="n">
+        <v>896.4963622374023</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>367</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-168.2168377777299</v>
+      </c>
+      <c r="D16" t="n">
+        <v>891.5761228312274</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>367</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-200.6822293655187</v>
+      </c>
+      <c r="D17" t="n">
+        <v>891.4496829729277</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>366</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-174.8038718268915</v>
+      </c>
+      <c r="D18" t="n">
+        <v>935.8370435624231</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>365</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-206.3606404848967</v>
+      </c>
+      <c r="D19" t="n">
+        <v>924.3849478300446</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>362</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-161.5705388499583</v>
+      </c>
+      <c r="D20" t="n">
+        <v>916.7563720458726</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>362</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-204.1019130478203</v>
+      </c>
+      <c r="D21" t="n">
+        <v>952.0788718988316</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>360</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-179.7199153645465</v>
+      </c>
+      <c r="D22" t="n">
+        <v>916.5531771526192</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>360</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-174.6933223349998</v>
+      </c>
+      <c r="D23" t="n">
+        <v>919.1107694904301</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>359</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-217.8348304726932</v>
+      </c>
+      <c r="D24" t="n">
+        <v>874.7336737211343</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>358</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-185.6487056668201</v>
+      </c>
+      <c r="D25" t="n">
+        <v>856.3476966544197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>358</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-187.7737504174749</v>
+      </c>
+      <c r="D26" t="n">
+        <v>939.4779741038634</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>357</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-203.9972742803984</v>
+      </c>
+      <c r="D27" t="n">
+        <v>869.0449370182019</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>356</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-175.5965650698359</v>
+      </c>
+      <c r="D28" t="n">
+        <v>891.4855508382385</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>356</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-166.6734261414533</v>
+      </c>
+      <c r="D29" t="n">
+        <v>912.1060039759194</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>355</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-197.2841786426922</v>
+      </c>
+      <c r="D30" t="n">
+        <v>904.8897696798249</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>354</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-190.2060748504325</v>
+      </c>
+      <c r="D31" t="n">
+        <v>926.2544792042419</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>353</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-176.1675280515049</v>
+      </c>
+      <c r="D32" t="n">
+        <v>884.669526874223</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>347</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-209.0262254332114</v>
+      </c>
+      <c r="D33" t="n">
+        <v>864.4999302174602</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>343</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-209.3306155616106</v>
+      </c>
+      <c r="D34" t="n">
+        <v>867.0496288862876</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>342</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-220.782731865289</v>
+      </c>
+      <c r="D35" t="n">
+        <v>849.8316142590845</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>342</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-210.494817077649</v>
+      </c>
+      <c r="D36" t="n">
+        <v>883.6147332750969</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>340</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-225.6084687511702</v>
+      </c>
+      <c r="D37" t="n">
+        <v>877.2533594087135</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>340</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-208.5457721096875</v>
+      </c>
+      <c r="D38" t="n">
+        <v>877.0367071108279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>339</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-215.4309665619556</v>
+      </c>
+      <c r="D39" t="n">
+        <v>848.7012859855914</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>339</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-189.2917712741222</v>
+      </c>
+      <c r="D40" t="n">
+        <v>868.2664667394394</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>338</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-204.7323535204872</v>
+      </c>
+      <c r="D41" t="n">
+        <v>885.2642605182391</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>338</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-221.3471607107979</v>
+      </c>
+      <c r="D42" t="n">
+        <v>845.4629079169182</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>337</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-241.4183256017047</v>
+      </c>
+      <c r="D43" t="n">
+        <v>850.2026107598673</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>337</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-230.0619005703225</v>
+      </c>
+      <c r="D44" t="n">
+        <v>846.9695703196379</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>336</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-186.1917378252672</v>
+      </c>
+      <c r="D45" t="n">
+        <v>864.371829583937</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>336</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-200.1735716737297</v>
+      </c>
+      <c r="D46" t="n">
+        <v>875.0654797713668</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C5BQ1HM6_po_data.xlsx
+++ b/po_analysis_by_asin/B0C5BQ1HM6_po_data.xlsx
@@ -917,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,16 +936,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -954,12 +944,6 @@
       <c r="B2" t="n">
         <v>377</v>
       </c>
-      <c r="C2" t="n">
-        <v>-167.6201035971666</v>
-      </c>
-      <c r="D2" t="n">
-        <v>895.9343489773556</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -968,12 +952,6 @@
       <c r="B3" t="n">
         <v>375</v>
       </c>
-      <c r="C3" t="n">
-        <v>-149.5526682201012</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.1962061527547</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -982,12 +960,6 @@
       <c r="B4" t="n">
         <v>375</v>
       </c>
-      <c r="C4" t="n">
-        <v>-160.5059425075265</v>
-      </c>
-      <c r="D4" t="n">
-        <v>855.1558878676997</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -996,12 +968,6 @@
       <c r="B5" t="n">
         <v>374</v>
       </c>
-      <c r="C5" t="n">
-        <v>-164.210164477648</v>
-      </c>
-      <c r="D5" t="n">
-        <v>923.1209601553389</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1010,12 +976,6 @@
       <c r="B6" t="n">
         <v>374</v>
       </c>
-      <c r="C6" t="n">
-        <v>-161.7013735420639</v>
-      </c>
-      <c r="D6" t="n">
-        <v>912.2807578878048</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1024,12 +984,6 @@
       <c r="B7" t="n">
         <v>373</v>
       </c>
-      <c r="C7" t="n">
-        <v>-196.408313147491</v>
-      </c>
-      <c r="D7" t="n">
-        <v>936.9213129534812</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1038,12 +992,6 @@
       <c r="B8" t="n">
         <v>373</v>
       </c>
-      <c r="C8" t="n">
-        <v>-201.2726136946428</v>
-      </c>
-      <c r="D8" t="n">
-        <v>933.2241788391301</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1052,12 +1000,6 @@
       <c r="B9" t="n">
         <v>372</v>
       </c>
-      <c r="C9" t="n">
-        <v>-180.1303586010583</v>
-      </c>
-      <c r="D9" t="n">
-        <v>943.9439542685134</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1066,12 +1008,6 @@
       <c r="B10" t="n">
         <v>372</v>
       </c>
-      <c r="C10" t="n">
-        <v>-173.9699601615456</v>
-      </c>
-      <c r="D10" t="n">
-        <v>900.6778233229171</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1080,12 +1016,6 @@
       <c r="B11" t="n">
         <v>371</v>
       </c>
-      <c r="C11" t="n">
-        <v>-171.7216516474463</v>
-      </c>
-      <c r="D11" t="n">
-        <v>889.720446561116</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1094,12 +1024,6 @@
       <c r="B12" t="n">
         <v>370</v>
       </c>
-      <c r="C12" t="n">
-        <v>-169.7470307266962</v>
-      </c>
-      <c r="D12" t="n">
-        <v>883.2509509398243</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1108,12 +1032,6 @@
       <c r="B13" t="n">
         <v>369</v>
       </c>
-      <c r="C13" t="n">
-        <v>-168.8468315567614</v>
-      </c>
-      <c r="D13" t="n">
-        <v>924.0081826539438</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1122,12 +1040,6 @@
       <c r="B14" t="n">
         <v>368</v>
       </c>
-      <c r="C14" t="n">
-        <v>-136.4426745778821</v>
-      </c>
-      <c r="D14" t="n">
-        <v>957.8230232608395</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1136,12 +1048,6 @@
       <c r="B15" t="n">
         <v>368</v>
       </c>
-      <c r="C15" t="n">
-        <v>-171.4405645503573</v>
-      </c>
-      <c r="D15" t="n">
-        <v>896.4963622374023</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1150,12 +1056,6 @@
       <c r="B16" t="n">
         <v>367</v>
       </c>
-      <c r="C16" t="n">
-        <v>-168.2168377777299</v>
-      </c>
-      <c r="D16" t="n">
-        <v>891.5761228312274</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1164,12 +1064,6 @@
       <c r="B17" t="n">
         <v>367</v>
       </c>
-      <c r="C17" t="n">
-        <v>-200.6822293655187</v>
-      </c>
-      <c r="D17" t="n">
-        <v>891.4496829729277</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1178,12 +1072,6 @@
       <c r="B18" t="n">
         <v>366</v>
       </c>
-      <c r="C18" t="n">
-        <v>-174.8038718268915</v>
-      </c>
-      <c r="D18" t="n">
-        <v>935.8370435624231</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1192,12 +1080,6 @@
       <c r="B19" t="n">
         <v>365</v>
       </c>
-      <c r="C19" t="n">
-        <v>-206.3606404848967</v>
-      </c>
-      <c r="D19" t="n">
-        <v>924.3849478300446</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1206,12 +1088,6 @@
       <c r="B20" t="n">
         <v>362</v>
       </c>
-      <c r="C20" t="n">
-        <v>-161.5705388499583</v>
-      </c>
-      <c r="D20" t="n">
-        <v>916.7563720458726</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1220,12 +1096,6 @@
       <c r="B21" t="n">
         <v>362</v>
       </c>
-      <c r="C21" t="n">
-        <v>-204.1019130478203</v>
-      </c>
-      <c r="D21" t="n">
-        <v>952.0788718988316</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1234,12 +1104,6 @@
       <c r="B22" t="n">
         <v>360</v>
       </c>
-      <c r="C22" t="n">
-        <v>-179.7199153645465</v>
-      </c>
-      <c r="D22" t="n">
-        <v>916.5531771526192</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1248,12 +1112,6 @@
       <c r="B23" t="n">
         <v>360</v>
       </c>
-      <c r="C23" t="n">
-        <v>-174.6933223349998</v>
-      </c>
-      <c r="D23" t="n">
-        <v>919.1107694904301</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1262,12 +1120,6 @@
       <c r="B24" t="n">
         <v>359</v>
       </c>
-      <c r="C24" t="n">
-        <v>-217.8348304726932</v>
-      </c>
-      <c r="D24" t="n">
-        <v>874.7336737211343</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1276,12 +1128,6 @@
       <c r="B25" t="n">
         <v>358</v>
       </c>
-      <c r="C25" t="n">
-        <v>-185.6487056668201</v>
-      </c>
-      <c r="D25" t="n">
-        <v>856.3476966544197</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1290,12 +1136,6 @@
       <c r="B26" t="n">
         <v>358</v>
       </c>
-      <c r="C26" t="n">
-        <v>-187.7737504174749</v>
-      </c>
-      <c r="D26" t="n">
-        <v>939.4779741038634</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1304,12 +1144,6 @@
       <c r="B27" t="n">
         <v>357</v>
       </c>
-      <c r="C27" t="n">
-        <v>-203.9972742803984</v>
-      </c>
-      <c r="D27" t="n">
-        <v>869.0449370182019</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1318,12 +1152,6 @@
       <c r="B28" t="n">
         <v>356</v>
       </c>
-      <c r="C28" t="n">
-        <v>-175.5965650698359</v>
-      </c>
-      <c r="D28" t="n">
-        <v>891.4855508382385</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1332,12 +1160,6 @@
       <c r="B29" t="n">
         <v>356</v>
       </c>
-      <c r="C29" t="n">
-        <v>-166.6734261414533</v>
-      </c>
-      <c r="D29" t="n">
-        <v>912.1060039759194</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1346,12 +1168,6 @@
       <c r="B30" t="n">
         <v>355</v>
       </c>
-      <c r="C30" t="n">
-        <v>-197.2841786426922</v>
-      </c>
-      <c r="D30" t="n">
-        <v>904.8897696798249</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1360,12 +1176,6 @@
       <c r="B31" t="n">
         <v>354</v>
       </c>
-      <c r="C31" t="n">
-        <v>-190.2060748504325</v>
-      </c>
-      <c r="D31" t="n">
-        <v>926.2544792042419</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1374,12 +1184,6 @@
       <c r="B32" t="n">
         <v>353</v>
       </c>
-      <c r="C32" t="n">
-        <v>-176.1675280515049</v>
-      </c>
-      <c r="D32" t="n">
-        <v>884.669526874223</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1388,12 +1192,6 @@
       <c r="B33" t="n">
         <v>347</v>
       </c>
-      <c r="C33" t="n">
-        <v>-209.0262254332114</v>
-      </c>
-      <c r="D33" t="n">
-        <v>864.4999302174602</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1402,12 +1200,6 @@
       <c r="B34" t="n">
         <v>343</v>
       </c>
-      <c r="C34" t="n">
-        <v>-209.3306155616106</v>
-      </c>
-      <c r="D34" t="n">
-        <v>867.0496288862876</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1416,12 +1208,6 @@
       <c r="B35" t="n">
         <v>342</v>
       </c>
-      <c r="C35" t="n">
-        <v>-220.782731865289</v>
-      </c>
-      <c r="D35" t="n">
-        <v>849.8316142590845</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1430,12 +1216,6 @@
       <c r="B36" t="n">
         <v>342</v>
       </c>
-      <c r="C36" t="n">
-        <v>-210.494817077649</v>
-      </c>
-      <c r="D36" t="n">
-        <v>883.6147332750969</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1444,12 +1224,6 @@
       <c r="B37" t="n">
         <v>340</v>
       </c>
-      <c r="C37" t="n">
-        <v>-225.6084687511702</v>
-      </c>
-      <c r="D37" t="n">
-        <v>877.2533594087135</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1458,12 +1232,6 @@
       <c r="B38" t="n">
         <v>340</v>
       </c>
-      <c r="C38" t="n">
-        <v>-208.5457721096875</v>
-      </c>
-      <c r="D38" t="n">
-        <v>877.0367071108279</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1472,12 +1240,6 @@
       <c r="B39" t="n">
         <v>339</v>
       </c>
-      <c r="C39" t="n">
-        <v>-215.4309665619556</v>
-      </c>
-      <c r="D39" t="n">
-        <v>848.7012859855914</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1486,12 +1248,6 @@
       <c r="B40" t="n">
         <v>339</v>
       </c>
-      <c r="C40" t="n">
-        <v>-189.2917712741222</v>
-      </c>
-      <c r="D40" t="n">
-        <v>868.2664667394394</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1500,12 +1256,6 @@
       <c r="B41" t="n">
         <v>338</v>
       </c>
-      <c r="C41" t="n">
-        <v>-204.7323535204872</v>
-      </c>
-      <c r="D41" t="n">
-        <v>885.2642605182391</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1514,12 +1264,6 @@
       <c r="B42" t="n">
         <v>338</v>
       </c>
-      <c r="C42" t="n">
-        <v>-221.3471607107979</v>
-      </c>
-      <c r="D42" t="n">
-        <v>845.4629079169182</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1528,12 +1272,6 @@
       <c r="B43" t="n">
         <v>337</v>
       </c>
-      <c r="C43" t="n">
-        <v>-241.4183256017047</v>
-      </c>
-      <c r="D43" t="n">
-        <v>850.2026107598673</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1542,12 +1280,6 @@
       <c r="B44" t="n">
         <v>337</v>
       </c>
-      <c r="C44" t="n">
-        <v>-230.0619005703225</v>
-      </c>
-      <c r="D44" t="n">
-        <v>846.9695703196379</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1556,12 +1288,6 @@
       <c r="B45" t="n">
         <v>336</v>
       </c>
-      <c r="C45" t="n">
-        <v>-186.1917378252672</v>
-      </c>
-      <c r="D45" t="n">
-        <v>864.371829583937</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1569,12 +1295,6 @@
       </c>
       <c r="B46" t="n">
         <v>336</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-200.1735716737297</v>
-      </c>
-      <c r="D46" t="n">
-        <v>875.0654797713668</v>
       </c>
     </row>
   </sheetData>
